--- a/data/calendar.xlsx
+++ b/data/calendar.xlsx
@@ -600,6 +600,15 @@
     <t>time_est</t>
   </si>
   <si>
+    <t>party</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>first_results_est</t>
   </si>
   <si>
@@ -609,21 +618,102 @@
     <t>8:00 p.m.</t>
   </si>
   <si>
+    <t>GOP</t>
+  </si>
+  <si>
+    <t>Dem</t>
+  </si>
+  <si>
+    <t>seat</t>
+  </si>
+  <si>
+    <t>voting_member</t>
+  </si>
+  <si>
+    <t>key_race</t>
+  </si>
+  <si>
+    <t>AK-1</t>
+  </si>
+  <si>
+    <t>AL-1</t>
+  </si>
+  <si>
+    <t>AL-2</t>
+  </si>
+  <si>
+    <t>AL-3</t>
+  </si>
+  <si>
+    <t>AL-4</t>
+  </si>
+  <si>
+    <t>AL-5</t>
+  </si>
+  <si>
+    <t>AL-6</t>
+  </si>
+  <si>
+    <t>AL-7</t>
+  </si>
+  <si>
+    <t>AR-1</t>
+  </si>
+  <si>
+    <t>AR-2</t>
+  </si>
+  <si>
+    <t>AR-3</t>
+  </si>
+  <si>
+    <t>AR-4</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>AS-1</t>
+  </si>
+  <si>
+    <t>AZ-1</t>
+  </si>
+  <si>
+    <t>AZ-2</t>
+  </si>
+  <si>
+    <t>AZ-3</t>
+  </si>
+  <si>
+    <t>AZ-4</t>
+  </si>
+  <si>
     <t>8:00 PM</t>
   </si>
   <si>
     <t xml:space="preserve">7 and 8 p.m. </t>
   </si>
   <si>
+    <t>AZ-5</t>
+  </si>
+  <si>
     <t>1:00 a.m.</t>
   </si>
   <si>
+    <t>AZ-6</t>
+  </si>
+  <si>
     <t>1:00 AM</t>
   </si>
   <si>
     <t>11 p.m., 12 a.m. and 1 a.m.</t>
   </si>
   <si>
+    <t>AZ-7</t>
+  </si>
+  <si>
+    <t>AZ-8</t>
+  </si>
+  <si>
     <t>9:00 p.m.</t>
   </si>
   <si>
@@ -633,6 +723,9 @@
     <t>9 p.m.</t>
   </si>
   <si>
+    <t>AZ-9</t>
+  </si>
+  <si>
     <t>8:30 p.m.</t>
   </si>
   <si>
@@ -642,6 +735,9 @@
     <t>8 p.m.</t>
   </si>
   <si>
+    <t>CA-1</t>
+  </si>
+  <si>
     <t>11:00 p.m.</t>
   </si>
   <si>
@@ -651,25 +747,49 @@
     <t>11 p.m.</t>
   </si>
   <si>
+    <t>CA-10</t>
+  </si>
+  <si>
     <t>9:00 PM</t>
   </si>
   <si>
+    <t>CA-11</t>
+  </si>
+  <si>
     <t>DC</t>
   </si>
   <si>
+    <t>CA-12</t>
+  </si>
+  <si>
+    <t>CA-13</t>
+  </si>
+  <si>
     <t>7:00 PM</t>
   </si>
   <si>
     <t>7 and 8 p.m.</t>
   </si>
   <si>
+    <t>CA-14</t>
+  </si>
+  <si>
     <t>7:00 p.m.</t>
   </si>
   <si>
     <t>7 p.m.</t>
   </si>
   <si>
+    <t>CA-15</t>
+  </si>
+  <si>
+    <t>CA-16</t>
+  </si>
+  <si>
     <t>10 and 11 p.m.</t>
+  </si>
+  <si>
+    <t>CA-17</t>
   </si>
   <si>
     <t>6:00 PM</t>
@@ -695,126 +815,6 @@
   </si>
   <si>
     <t>7:30 PM</t>
-  </si>
-  <si>
-    <t>party</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>GOP</t>
-  </si>
-  <si>
-    <t>Dem</t>
-  </si>
-  <si>
-    <t>seat</t>
-  </si>
-  <si>
-    <t>voting_member</t>
-  </si>
-  <si>
-    <t>key_race</t>
-  </si>
-  <si>
-    <t>AK-1</t>
-  </si>
-  <si>
-    <t>AL-1</t>
-  </si>
-  <si>
-    <t>AL-2</t>
-  </si>
-  <si>
-    <t>AL-3</t>
-  </si>
-  <si>
-    <t>AL-4</t>
-  </si>
-  <si>
-    <t>AL-5</t>
-  </si>
-  <si>
-    <t>AL-6</t>
-  </si>
-  <si>
-    <t>AL-7</t>
-  </si>
-  <si>
-    <t>AR-1</t>
-  </si>
-  <si>
-    <t>AR-2</t>
-  </si>
-  <si>
-    <t>AR-3</t>
-  </si>
-  <si>
-    <t>AR-4</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>AS-1</t>
-  </si>
-  <si>
-    <t>AZ-1</t>
-  </si>
-  <si>
-    <t>AZ-2</t>
-  </si>
-  <si>
-    <t>AZ-3</t>
-  </si>
-  <si>
-    <t>AZ-4</t>
-  </si>
-  <si>
-    <t>AZ-5</t>
-  </si>
-  <si>
-    <t>AZ-6</t>
-  </si>
-  <si>
-    <t>AZ-7</t>
-  </si>
-  <si>
-    <t>AZ-8</t>
-  </si>
-  <si>
-    <t>AZ-9</t>
-  </si>
-  <si>
-    <t>CA-1</t>
-  </si>
-  <si>
-    <t>CA-10</t>
-  </si>
-  <si>
-    <t>CA-11</t>
-  </si>
-  <si>
-    <t>CA-12</t>
-  </si>
-  <si>
-    <t>CA-13</t>
-  </si>
-  <si>
-    <t>CA-14</t>
-  </si>
-  <si>
-    <t>CA-15</t>
-  </si>
-  <si>
-    <t>CA-16</t>
-  </si>
-  <si>
-    <t>CA-17</t>
   </si>
   <si>
     <t>CA-18</t>
@@ -2208,14 +2208,14 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -10680,724 +10680,724 @@
         <v>191</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>195</v>
+      <c r="B2" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>221</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>199</v>
+      <c r="B3" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>202</v>
+      <c r="B4" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>205</v>
+      <c r="B5" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>208</v>
+      <c r="B6" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>202</v>
+      <c r="B7" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>205</v>
+      <c r="B8" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>205</v>
+        <v>244</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>205</v>
+      <c r="B10" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>211</v>
+      <c r="B11" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>247</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>214</v>
+      <c r="B12" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>208</v>
+      <c r="B13" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>207</v>
+      <c r="B14" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>239</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>205</v>
+      <c r="B15" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>216</v>
+      <c r="B16" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>256</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>219</v>
+      <c r="B17" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>195</v>
+      <c r="B18" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>221</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>216</v>
+      <c r="B19" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>256</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>202</v>
+      <c r="B20" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>205</v>
+      <c r="B21" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>205</v>
+      <c r="B22" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>205</v>
+      <c r="B23" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>195</v>
+      <c r="B24" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>221</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>202</v>
+      <c r="B25" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>205</v>
+      <c r="B26" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>205</v>
+      <c r="B27" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>219</v>
+      <c r="B28" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>202</v>
+      <c r="B29" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>219</v>
+      <c r="B30" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>211</v>
+      <c r="B31" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>247</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>205</v>
+      <c r="B32" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>202</v>
+      <c r="B33" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>202</v>
+      <c r="B34" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B35" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>222</v>
+      <c r="B35" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B36" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>195</v>
+      <c r="B36" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>221</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B37" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>222</v>
+      <c r="B37" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B38" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>205</v>
+      <c r="B38" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>207</v>
+      <c r="B39" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>239</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B40" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>205</v>
+      <c r="B40" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B41" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>205</v>
+      <c r="B41" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B42" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>214</v>
+      <c r="B42" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B43" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>209</v>
+      <c r="B43" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>242</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B44" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>205</v>
+      <c r="B44" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B45" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>195</v>
+      <c r="B45" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>221</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B46" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>219</v>
+      <c r="B46" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B47" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>214</v>
+      <c r="B47" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B48" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>214</v>
+      <c r="B48" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B49" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>208</v>
+      <c r="B49" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B50" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>222</v>
+      <c r="B50" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B51" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>202</v>
+      <c r="B51" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B52" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>202</v>
+      <c r="B52" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="53">
@@ -15112,38 +15112,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
+        <v>194</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>44</v>
@@ -15154,7 +15154,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>41</v>
@@ -15165,7 +15165,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>50</v>
@@ -15176,7 +15176,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>47</v>
@@ -15187,7 +15187,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>53</v>
@@ -15198,7 +15198,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>56</v>
@@ -15209,7 +15209,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>59</v>
@@ -15220,7 +15220,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>65</v>
@@ -15231,7 +15231,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>68</v>
@@ -15242,7 +15242,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>71</v>
@@ -15253,7 +15253,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>83</v>
@@ -15264,7 +15264,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>74</v>
@@ -15275,7 +15275,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>77</v>
@@ -15286,7 +15286,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>80</v>
@@ -15297,7 +15297,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>86</v>
@@ -15308,7 +15308,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>89</v>
@@ -15319,7 +15319,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>92</v>
@@ -15330,7 +15330,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>98</v>
@@ -15341,7 +15341,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>113</v>
@@ -15352,7 +15352,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>137</v>
@@ -15363,7 +15363,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>140</v>
@@ -15374,7 +15374,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>125</v>
@@ -15385,7 +15385,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>122</v>
@@ -15396,7 +15396,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>134</v>
@@ -15407,7 +15407,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>143</v>
@@ -15418,7 +15418,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>146</v>
@@ -15429,7 +15429,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>149</v>
@@ -15440,7 +15440,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>152</v>
@@ -15451,7 +15451,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>158</v>
@@ -15462,7 +15462,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>161</v>
@@ -15473,7 +15473,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>170</v>
@@ -15484,7 +15484,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>173</v>
@@ -15495,7 +15495,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>179</v>
@@ -15506,7 +15506,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>185</v>
@@ -15539,48 +15539,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
+        <v>202</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="D2" s="2" t="b">
         <v>1</v>
@@ -15589,13 +15589,13 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="D3" s="2" t="b">
         <v>1</v>
@@ -15604,13 +15604,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="D4" s="2" t="b">
         <v>1</v>
@@ -15619,13 +15619,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="D5" s="2" t="b">
         <v>1</v>
@@ -15634,13 +15634,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="D6" s="2" t="b">
         <v>1</v>
@@ -15649,13 +15649,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="D7" s="2" t="b">
         <v>1</v>
@@ -15664,13 +15664,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="D8" s="2" t="b">
         <v>1</v>
@@ -15679,13 +15679,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="D9" s="2" t="b">
         <v>1</v>
@@ -15694,13 +15694,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="D10" s="2" t="b">
         <v>1</v>
@@ -15709,13 +15709,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="D11" s="2" t="b">
         <v>1</v>
@@ -15726,13 +15726,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="D12" s="2" t="b">
         <v>1</v>
@@ -15741,13 +15741,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="D13" s="2" t="b">
         <v>1</v>
@@ -15756,13 +15756,13 @@
     </row>
     <row r="14" hidden="1">
       <c r="A14" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="D14" s="2" t="b">
         <v>0</v>
@@ -15770,13 +15770,13 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="D15" s="2" t="b">
         <v>1</v>
@@ -15787,13 +15787,13 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="D16" s="2" t="b">
         <v>1</v>
@@ -15804,13 +15804,13 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="D17" s="2" t="b">
         <v>1</v>
@@ -15819,13 +15819,13 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="D18" s="2" t="b">
         <v>1</v>
@@ -15834,13 +15834,13 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="D19" s="2" t="b">
         <v>1</v>
@@ -15849,13 +15849,13 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="D20" s="2" t="b">
         <v>1</v>
@@ -15864,13 +15864,13 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="D21" s="2" t="b">
         <v>1</v>
@@ -15879,13 +15879,13 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="D22" s="2" t="b">
         <v>1</v>
@@ -15894,13 +15894,13 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="D23" s="2" t="b">
         <v>1</v>
@@ -15909,13 +15909,13 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="D24" s="2" t="b">
         <v>1</v>
@@ -15924,13 +15924,13 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D25" s="2" t="b">
         <v>1</v>
@@ -15941,13 +15941,13 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="D26" s="2" t="b">
         <v>1</v>
@@ -15956,13 +15956,13 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="D27" s="2" t="b">
         <v>1</v>
@@ -15971,13 +15971,13 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D28" s="2" t="b">
         <v>1</v>
@@ -15986,13 +15986,13 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D29" s="2" t="b">
         <v>1</v>
@@ -16001,13 +16001,13 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D30" s="2" t="b">
         <v>1</v>
@@ -16016,13 +16016,13 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D31" s="2" t="b">
         <v>1</v>
@@ -16031,13 +16031,13 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D32" s="2" t="b">
         <v>1</v>
@@ -16046,7 +16046,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>53</v>
@@ -16061,7 +16061,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>53</v>
@@ -16076,7 +16076,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>53</v>
@@ -16091,7 +16091,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>53</v>
@@ -16106,7 +16106,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>53</v>
@@ -16121,7 +16121,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>53</v>
@@ -16136,7 +16136,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>53</v>
@@ -16151,7 +16151,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>53</v>
@@ -16166,7 +16166,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>53</v>
@@ -16183,7 +16183,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>53</v>
@@ -16198,7 +16198,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>53</v>
@@ -16213,7 +16213,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>53</v>
@@ -16228,7 +16228,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>53</v>
@@ -16243,7 +16243,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>53</v>
@@ -16258,7 +16258,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>53</v>
@@ -16273,7 +16273,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>53</v>
@@ -16288,7 +16288,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>53</v>
@@ -16303,7 +16303,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>53</v>
@@ -16318,7 +16318,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>53</v>
@@ -16333,7 +16333,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>53</v>
@@ -16348,7 +16348,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>53</v>
@@ -16363,7 +16363,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>53</v>
@@ -16378,7 +16378,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>53</v>
@@ -16393,7 +16393,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>53</v>
@@ -16410,7 +16410,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>53</v>
@@ -16425,7 +16425,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>53</v>
@@ -16440,7 +16440,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>53</v>
@@ -16455,7 +16455,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>53</v>
@@ -16470,7 +16470,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>53</v>
@@ -16485,7 +16485,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>53</v>
@@ -16500,7 +16500,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>53</v>
@@ -16517,7 +16517,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>53</v>
@@ -16532,7 +16532,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>53</v>
@@ -16547,7 +16547,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>53</v>
@@ -16564,7 +16564,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>53</v>
@@ -16581,7 +16581,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>53</v>
@@ -16596,7 +16596,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>53</v>
@@ -16611,7 +16611,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>53</v>
@@ -16626,7 +16626,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>53</v>
@@ -16641,7 +16641,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>53</v>
@@ -16656,7 +16656,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>53</v>
@@ -16671,7 +16671,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>53</v>
@@ -16686,7 +16686,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>53</v>
@@ -16701,7 +16701,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>53</v>
@@ -16716,7 +16716,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>56</v>
@@ -16731,7 +16731,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>56</v>
@@ -16746,7 +16746,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>56</v>
@@ -16761,7 +16761,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>56</v>
@@ -16776,7 +16776,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>56</v>
@@ -16791,7 +16791,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>56</v>
@@ -16808,7 +16808,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>56</v>
@@ -16823,7 +16823,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>59</v>
@@ -16838,7 +16838,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>59</v>
@@ -16853,7 +16853,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>59</v>
@@ -16868,7 +16868,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>59</v>
@@ -16883,7 +16883,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>59</v>
@@ -16898,10 +16898,10 @@
     </row>
     <row r="89" hidden="1">
       <c r="A89" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>320</v>
@@ -16912,10 +16912,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>320</v>
@@ -16924,7 +16924,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>62</v>
@@ -16939,7 +16939,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>65</v>
@@ -16954,7 +16954,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>65</v>
@@ -16969,7 +16969,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>65</v>
@@ -16984,7 +16984,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>65</v>
@@ -16999,7 +16999,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>65</v>
@@ -17014,7 +17014,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>65</v>
@@ -17029,7 +17029,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>65</v>
@@ -17044,7 +17044,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>65</v>
@@ -17059,7 +17059,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>65</v>
@@ -17074,7 +17074,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>65</v>
@@ -17089,7 +17089,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>65</v>
@@ -17104,7 +17104,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>65</v>
@@ -17119,7 +17119,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>65</v>
@@ -17134,7 +17134,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>65</v>
@@ -17149,7 +17149,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>65</v>
@@ -17164,7 +17164,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>65</v>
@@ -17179,7 +17179,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>65</v>
@@ -17194,7 +17194,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>65</v>
@@ -17209,7 +17209,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>65</v>
@@ -17226,7 +17226,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>65</v>
@@ -17243,7 +17243,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>65</v>
@@ -17258,7 +17258,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>65</v>
@@ -17273,7 +17273,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>65</v>
@@ -17288,7 +17288,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>65</v>
@@ -17303,7 +17303,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>65</v>
@@ -17318,7 +17318,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>65</v>
@@ -17333,7 +17333,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>65</v>
@@ -17348,7 +17348,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>68</v>
@@ -17363,7 +17363,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>68</v>
@@ -17378,7 +17378,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>68</v>
@@ -17393,7 +17393,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>68</v>
@@ -17408,7 +17408,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>68</v>
@@ -17423,7 +17423,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>68</v>
@@ -17438,7 +17438,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>68</v>
@@ -17453,7 +17453,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>68</v>
@@ -17468,7 +17468,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>68</v>
@@ -17483,7 +17483,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>68</v>
@@ -17498,7 +17498,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>68</v>
@@ -17513,7 +17513,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>68</v>
@@ -17528,7 +17528,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>68</v>
@@ -17543,7 +17543,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>68</v>
@@ -17558,7 +17558,7 @@
     </row>
     <row r="133" hidden="1">
       <c r="A133" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>363</v>
@@ -17572,7 +17572,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>71</v>
@@ -17587,7 +17587,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>71</v>
@@ -17602,7 +17602,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>83</v>
@@ -17619,7 +17619,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>83</v>
@@ -17634,7 +17634,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>83</v>
@@ -17651,7 +17651,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>83</v>
@@ -17666,7 +17666,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>74</v>
@@ -17681,7 +17681,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>74</v>
@@ -17696,7 +17696,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>77</v>
@@ -17711,7 +17711,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>77</v>
@@ -17726,7 +17726,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>77</v>
@@ -17741,7 +17741,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>77</v>
@@ -17758,7 +17758,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>77</v>
@@ -17773,7 +17773,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>77</v>
@@ -17790,7 +17790,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>77</v>
@@ -17805,7 +17805,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>77</v>
@@ -17820,7 +17820,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>77</v>
@@ -17835,7 +17835,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>77</v>
@@ -17850,7 +17850,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>77</v>
@@ -17865,7 +17865,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>77</v>
@@ -17880,7 +17880,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>77</v>
@@ -17895,7 +17895,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>77</v>
@@ -17910,7 +17910,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>77</v>
@@ -17927,7 +17927,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>77</v>
@@ -17942,7 +17942,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>77</v>
@@ -17957,7 +17957,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>77</v>
@@ -17972,7 +17972,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>80</v>
@@ -17987,7 +17987,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>80</v>
@@ -18002,7 +18002,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>80</v>
@@ -18017,7 +18017,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>80</v>
@@ -18032,7 +18032,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>80</v>
@@ -18047,7 +18047,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>80</v>
@@ -18062,7 +18062,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>80</v>
@@ -18077,7 +18077,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>80</v>
@@ -18092,7 +18092,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>80</v>
@@ -18107,7 +18107,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>86</v>
@@ -18122,7 +18122,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>86</v>
@@ -18139,7 +18139,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>86</v>
@@ -18156,7 +18156,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>86</v>
@@ -18171,7 +18171,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>89</v>
@@ -18186,7 +18186,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>89</v>
@@ -18201,7 +18201,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>89</v>
@@ -18216,7 +18216,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>89</v>
@@ -18231,7 +18231,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>89</v>
@@ -18246,7 +18246,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>89</v>
@@ -18263,7 +18263,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>92</v>
@@ -18278,7 +18278,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>92</v>
@@ -18293,7 +18293,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>92</v>
@@ -18308,7 +18308,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>92</v>
@@ -18323,7 +18323,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>92</v>
@@ -18338,7 +18338,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>92</v>
@@ -18353,7 +18353,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>101</v>
@@ -18368,7 +18368,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>101</v>
@@ -18383,7 +18383,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>101</v>
@@ -18398,7 +18398,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>101</v>
@@ -18413,7 +18413,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>101</v>
@@ -18428,7 +18428,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>101</v>
@@ -18443,7 +18443,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>101</v>
@@ -18458,7 +18458,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>101</v>
@@ -18473,7 +18473,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>101</v>
@@ -18488,7 +18488,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>98</v>
@@ -18503,7 +18503,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>98</v>
@@ -18518,7 +18518,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>98</v>
@@ -18533,7 +18533,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>98</v>
@@ -18548,7 +18548,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>98</v>
@@ -18563,7 +18563,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>98</v>
@@ -18578,7 +18578,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>98</v>
@@ -18593,7 +18593,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>98</v>
@@ -18608,7 +18608,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>95</v>
@@ -18623,7 +18623,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>95</v>
@@ -18640,7 +18640,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>104</v>
@@ -18655,7 +18655,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>104</v>
@@ -18670,7 +18670,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>104</v>
@@ -18687,7 +18687,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>104</v>
@@ -18702,7 +18702,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>104</v>
@@ -18717,7 +18717,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>104</v>
@@ -18732,7 +18732,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>104</v>
@@ -18747,7 +18747,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>104</v>
@@ -18762,7 +18762,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>104</v>
@@ -18777,7 +18777,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>104</v>
@@ -18792,7 +18792,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>104</v>
@@ -18807,7 +18807,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>104</v>
@@ -18822,7 +18822,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>104</v>
@@ -18839,7 +18839,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>104</v>
@@ -18854,7 +18854,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>107</v>
@@ -18871,7 +18871,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>107</v>
@@ -18888,7 +18888,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>107</v>
@@ -18905,7 +18905,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>107</v>
@@ -18920,7 +18920,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>107</v>
@@ -18935,7 +18935,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>107</v>
@@ -18950,7 +18950,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>107</v>
@@ -18965,7 +18965,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>107</v>
@@ -18982,7 +18982,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>113</v>
@@ -18997,7 +18997,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>113</v>
@@ -19012,7 +19012,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>113</v>
@@ -19027,7 +19027,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>113</v>
@@ -19042,7 +19042,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>113</v>
@@ -19057,7 +19057,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>113</v>
@@ -19072,7 +19072,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>113</v>
@@ -19087,7 +19087,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>113</v>
@@ -19116,7 +19116,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>110</v>
@@ -19131,7 +19131,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>110</v>
@@ -19146,7 +19146,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>110</v>
@@ -19161,7 +19161,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>110</v>
@@ -19176,7 +19176,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>116</v>
@@ -19191,7 +19191,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>137</v>
@@ -19206,7 +19206,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>137</v>
@@ -19221,7 +19221,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>137</v>
@@ -19236,7 +19236,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>137</v>
@@ -19251,7 +19251,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>137</v>
@@ -19268,7 +19268,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>137</v>
@@ -19283,7 +19283,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>137</v>
@@ -19298,7 +19298,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>137</v>
@@ -19313,7 +19313,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>137</v>
@@ -19328,7 +19328,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>137</v>
@@ -19343,7 +19343,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>137</v>
@@ -19358,7 +19358,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>137</v>
@@ -19373,7 +19373,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>137</v>
@@ -19390,7 +19390,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>140</v>
@@ -19405,7 +19405,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>119</v>
@@ -19420,7 +19420,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>119</v>
@@ -19437,7 +19437,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>119</v>
@@ -19452,7 +19452,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>125</v>
@@ -19469,7 +19469,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>125</v>
@@ -19484,7 +19484,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>128</v>
@@ -19499,7 +19499,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>128</v>
@@ -19514,7 +19514,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>128</v>
@@ -19531,7 +19531,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>128</v>
@@ -19546,7 +19546,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>128</v>
@@ -19561,7 +19561,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>128</v>
@@ -19578,7 +19578,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>128</v>
@@ -19593,7 +19593,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>128</v>
@@ -19608,7 +19608,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>128</v>
@@ -19625,7 +19625,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>128</v>
@@ -19640,7 +19640,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>128</v>
@@ -19655,7 +19655,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>128</v>
@@ -19670,7 +19670,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>131</v>
@@ -19685,7 +19685,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>131</v>
@@ -19702,7 +19702,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>131</v>
@@ -19717,7 +19717,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>122</v>
@@ -19732,7 +19732,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>122</v>
@@ -19747,7 +19747,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>122</v>
@@ -19764,7 +19764,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>122</v>
@@ -19781,7 +19781,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>134</v>
@@ -19796,7 +19796,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>134</v>
@@ -19811,7 +19811,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>134</v>
@@ -19828,7 +19828,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>134</v>
@@ -19843,7 +19843,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>134</v>
@@ -19858,7 +19858,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>134</v>
@@ -19873,7 +19873,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>134</v>
@@ -19888,7 +19888,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>134</v>
@@ -19903,7 +19903,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>134</v>
@@ -19918,7 +19918,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>134</v>
@@ -19933,7 +19933,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>134</v>
@@ -19950,7 +19950,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>134</v>
@@ -19965,7 +19965,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>134</v>
@@ -19980,7 +19980,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>134</v>
@@ -19995,7 +19995,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>134</v>
@@ -20012,7 +20012,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>134</v>
@@ -20027,7 +20027,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>134</v>
@@ -20042,7 +20042,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>134</v>
@@ -20057,7 +20057,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>134</v>
@@ -20072,7 +20072,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>134</v>
@@ -20087,7 +20087,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>134</v>
@@ -20102,7 +20102,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>134</v>
@@ -20117,7 +20117,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>134</v>
@@ -20132,7 +20132,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>134</v>
@@ -20147,7 +20147,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>134</v>
@@ -20162,7 +20162,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>134</v>
@@ -20177,7 +20177,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>134</v>
@@ -20192,7 +20192,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>143</v>
@@ -20209,7 +20209,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>143</v>
@@ -20224,7 +20224,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>143</v>
@@ -20239,7 +20239,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>143</v>
@@ -20256,7 +20256,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>143</v>
@@ -20271,7 +20271,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>143</v>
@@ -20286,7 +20286,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>143</v>
@@ -20301,7 +20301,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>143</v>
@@ -20316,7 +20316,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>143</v>
@@ -20331,7 +20331,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>143</v>
@@ -20346,7 +20346,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>143</v>
@@ -20361,7 +20361,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>143</v>
@@ -20376,7 +20376,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>143</v>
@@ -20391,7 +20391,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>143</v>
@@ -20406,7 +20406,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>143</v>
@@ -20421,7 +20421,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>143</v>
@@ -20436,7 +20436,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>146</v>
@@ -20451,7 +20451,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>146</v>
@@ -20466,7 +20466,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>146</v>
@@ -20481,7 +20481,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>146</v>
@@ -20496,7 +20496,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>146</v>
@@ -20511,7 +20511,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>149</v>
@@ -20526,7 +20526,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>149</v>
@@ -20541,7 +20541,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>149</v>
@@ -20556,7 +20556,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>149</v>
@@ -20571,7 +20571,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>149</v>
@@ -20586,7 +20586,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>152</v>
@@ -20603,7 +20603,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>152</v>
@@ -20618,7 +20618,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>152</v>
@@ -20633,7 +20633,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>152</v>
@@ -20648,7 +20648,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>152</v>
@@ -20663,7 +20663,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>152</v>
@@ -20678,7 +20678,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>152</v>
@@ -20693,7 +20693,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>152</v>
@@ -20708,7 +20708,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>152</v>
@@ -20725,7 +20725,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>152</v>
@@ -20740,7 +20740,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>152</v>
@@ -20755,7 +20755,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>152</v>
@@ -20770,7 +20770,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>152</v>
@@ -20785,7 +20785,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>152</v>
@@ -20800,7 +20800,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>152</v>
@@ -20815,7 +20815,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>152</v>
@@ -20832,7 +20832,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>152</v>
@@ -20847,7 +20847,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>152</v>
@@ -20862,7 +20862,7 @@
     </row>
     <row r="349" hidden="1">
       <c r="A349" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>582</v>
@@ -20876,7 +20876,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>155</v>
@@ -20891,7 +20891,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>155</v>
@@ -20906,7 +20906,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>158</v>
@@ -20921,7 +20921,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>158</v>
@@ -20936,7 +20936,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>158</v>
@@ -20951,7 +20951,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>158</v>
@@ -20966,7 +20966,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>158</v>
@@ -20981,7 +20981,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>158</v>
@@ -20996,7 +20996,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>158</v>
@@ -21011,7 +21011,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>161</v>
@@ -21026,7 +21026,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>164</v>
@@ -21041,7 +21041,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>164</v>
@@ -21056,7 +21056,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>164</v>
@@ -21071,7 +21071,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>164</v>
@@ -21086,7 +21086,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>164</v>
@@ -21101,7 +21101,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>164</v>
@@ -21116,7 +21116,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>164</v>
@@ -21131,7 +21131,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>164</v>
@@ -21146,7 +21146,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>164</v>
@@ -21161,7 +21161,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>167</v>
@@ -21176,7 +21176,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>167</v>
@@ -21191,7 +21191,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>167</v>
@@ -21206,7 +21206,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>167</v>
@@ -21221,7 +21221,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>167</v>
@@ -21236,7 +21236,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>167</v>
@@ -21251,7 +21251,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>167</v>
@@ -21266,7 +21266,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>167</v>
@@ -21281,7 +21281,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>167</v>
@@ -21296,7 +21296,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>167</v>
@@ -21311,7 +21311,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>167</v>
@@ -21326,7 +21326,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>167</v>
@@ -21341,7 +21341,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>167</v>
@@ -21356,7 +21356,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>167</v>
@@ -21371,7 +21371,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>167</v>
@@ -21386,7 +21386,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>167</v>
@@ -21403,7 +21403,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>167</v>
@@ -21418,7 +21418,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>167</v>
@@ -21433,7 +21433,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>167</v>
@@ -21448,7 +21448,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>167</v>
@@ -21463,7 +21463,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>167</v>
@@ -21478,7 +21478,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>167</v>
@@ -21493,7 +21493,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>167</v>
@@ -21508,7 +21508,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>167</v>
@@ -21523,7 +21523,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>167</v>
@@ -21538,7 +21538,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>167</v>
@@ -21555,7 +21555,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>167</v>
@@ -21570,7 +21570,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>167</v>
@@ -21585,7 +21585,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>167</v>
@@ -21600,7 +21600,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>167</v>
@@ -21615,7 +21615,7 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>167</v>
@@ -21630,7 +21630,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>167</v>
@@ -21645,7 +21645,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>167</v>
@@ -21660,7 +21660,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>167</v>
@@ -21677,7 +21677,7 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>167</v>
@@ -21692,7 +21692,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>167</v>
@@ -21707,7 +21707,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>170</v>
@@ -21722,7 +21722,7 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>170</v>
@@ -21737,7 +21737,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>170</v>
@@ -21752,7 +21752,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>170</v>
@@ -21769,7 +21769,7 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>176</v>
@@ -21784,7 +21784,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>176</v>
@@ -21801,7 +21801,7 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>176</v>
@@ -21816,7 +21816,7 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>176</v>
@@ -21833,7 +21833,7 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>176</v>
@@ -21848,7 +21848,7 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>176</v>
@@ -21863,7 +21863,7 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>176</v>
@@ -21878,7 +21878,7 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>176</v>
@@ -21893,7 +21893,7 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>176</v>
@@ -21910,7 +21910,7 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>176</v>
@@ -21925,7 +21925,7 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>176</v>
@@ -21940,7 +21940,7 @@
     </row>
     <row r="420" hidden="1">
       <c r="A420" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>654</v>
@@ -21954,7 +21954,7 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>173</v>
@@ -21969,7 +21969,7 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>179</v>
@@ -21984,7 +21984,7 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>179</v>
@@ -21999,7 +21999,7 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>179</v>
@@ -22014,7 +22014,7 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>179</v>
@@ -22029,7 +22029,7 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>179</v>
@@ -22044,7 +22044,7 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>179</v>
@@ -22061,7 +22061,7 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>179</v>
@@ -22076,7 +22076,7 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>179</v>
@@ -22091,7 +22091,7 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>179</v>
@@ -22108,7 +22108,7 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>179</v>
@@ -22123,7 +22123,7 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>185</v>
@@ -22140,7 +22140,7 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>185</v>
@@ -22155,7 +22155,7 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>185</v>
@@ -22170,7 +22170,7 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>185</v>
@@ -22185,7 +22185,7 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>185</v>
@@ -22200,7 +22200,7 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>185</v>
@@ -22217,7 +22217,7 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>185</v>
@@ -22232,7 +22232,7 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>185</v>
@@ -22247,7 +22247,7 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>182</v>
@@ -22262,7 +22262,7 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>182</v>
@@ -22277,7 +22277,7 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>182</v>
@@ -22294,7 +22294,7 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>188</v>
